--- a/08-03-25 to 08-09-25 Milwaukee Schedule.xlsx
+++ b/08-03-25 to 08-09-25 Milwaukee Schedule.xlsx
@@ -3684,7 +3684,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #605, BAYSIDE</t>
+          <t>OPEN PANTRY #614, MILWAUKEE</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3719,7 +3719,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>501 W BROWN DEER RD</t>
+          <t>3100 S 76TH ST</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3754,7 +3754,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/pQaSRAn88Vh6DAQ58</t>
+          <t>https://goo.gl/maps/fpg1rAd58h22</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>

--- a/08-03-25 to 08-09-25 Milwaukee Schedule.xlsx
+++ b/08-03-25 to 08-09-25 Milwaukee Schedule.xlsx
@@ -3096,21 +3096,9 @@
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -3160,21 +3148,9 @@
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>

--- a/08-03-25 to 08-09-25 Milwaukee Schedule.xlsx
+++ b/08-03-25 to 08-09-25 Milwaukee Schedule.xlsx
@@ -618,7 +618,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bag 5</t>
+          <t>Bag 13</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -630,7 +630,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Bag 5</t>
+          <t>Bag 13</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>

--- a/08-03-25 to 08-09-25 Milwaukee Schedule.xlsx
+++ b/08-03-25 to 08-09-25 Milwaukee Schedule.xlsx
@@ -1099,7 +1099,7 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>STORE RESET-</t>
+          <t>STORE RESET-REMAPPED</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>

--- a/08-03-25 to 08-09-25 Milwaukee Schedule.xlsx
+++ b/08-03-25 to 08-09-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y67"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3087,14 +3087,10 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
@@ -3143,7 +3139,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3195,7 +3191,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3246,7 +3242,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3297,10 +3293,14 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr"/>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
@@ -3344,12 +3344,12 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Tanner</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>After Aurora</t>
+          <t>w/ Carlie</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Tanner</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -3459,21 +3459,9 @@
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>w/ Carlie</t>
-        </is>
-      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
@@ -3538,7 +3526,11 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3567,7 +3559,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3602,7 +3594,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA OUTPATIENT RX #1014, SOUTH MILWAUKEE</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3637,7 +3629,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1014, SOUTH MILWAUKEE</t>
+          <t>2414 10TH AVENUE</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3672,7 +3664,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>2414 10TH AVENUE</t>
+          <t>https://goo.gl/maps/RKFe5ejXrhF2</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3707,7 +3699,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/RKFe5ejXrhF2</t>
+          <t>IF AVAILBLE, USE "NEW" (4208) SCANNERS AT THIS STORE</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3740,11 +3732,7 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>IF AVAILBLE, USE "NEW" (4208) SCANNERS AT THIS STORE</t>
-        </is>
-      </c>
+      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
@@ -3770,9 +3758,21 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
@@ -3811,19 +3811,15 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
@@ -3858,15 +3854,19 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr"/>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>Training on CK's</t>
+        </is>
+      </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
@@ -3891,21 +3891,9 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>Training on CK's</t>
-        </is>
-      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
@@ -3913,6 +3901,99 @@
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
     </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/08-03-25 to 08-09-25 Milwaukee Schedule.xlsx
+++ b/08-03-25 to 08-09-25 Milwaukee Schedule.xlsx
@@ -3179,7 +3179,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #612, BROOKFIELD</t>
+          <t>OPEN PANTRY #614</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3228,11 +3228,7 @@
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>17235 W BLUEMOUND RD</t>
-        </is>
-      </c>
+      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
@@ -3279,11 +3275,7 @@
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/awRYbmypZ4H2</t>
-        </is>
-      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
@@ -3652,7 +3644,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #614, MILWAUKEE</t>
+          <t>OPEN PANTRY #605</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3685,11 +3677,7 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>3100 S 76TH ST</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
@@ -3720,11 +3708,7 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/fpg1rAd58h22</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>

--- a/08-03-25 to 08-09-25 Milwaukee Schedule.xlsx
+++ b/08-03-25 to 08-09-25 Milwaukee Schedule.xlsx
@@ -3179,7 +3179,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #614</t>
+          <t>OPEN PANTRY #614, MILWAUKEE</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3228,7 +3228,11 @@
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>3110 S 76TH ST</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
@@ -3275,7 +3279,11 @@
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/kh9gznSzvcqj486p9</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
@@ -3644,7 +3652,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #605</t>
+          <t>OPEN PANTRY #605, BAYSIDE</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3677,7 +3685,11 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>501 W BROWN DEER RD</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
@@ -3708,7 +3720,11 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/qUf5bG63ba42YxWQ9</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>

--- a/08-03-25 to 08-09-25 Milwaukee Schedule.xlsx
+++ b/08-03-25 to 08-09-25 Milwaukee Schedule.xlsx
@@ -2383,7 +2383,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>PICK #360 +RX, FRANKLIN-76TH ST</t>
+          <t>PICK #360 (no RX count), FRANKLIN-76TH ST</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2917,11 +2917,7 @@
           <t>Ian</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
@@ -2972,11 +2968,7 @@
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>

--- a/08-03-25 to 08-09-25 Milwaukee Schedule.xlsx
+++ b/08-03-25 to 08-09-25 Milwaukee Schedule.xlsx
@@ -1285,7 +1285,8 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Supv Rx</t>
+          <t>Supv Rx,
+Until 12:00</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>

--- a/08-03-25 to 08-09-25 Milwaukee Schedule.xlsx
+++ b/08-03-25 to 08-09-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y70"/>
+  <dimension ref="A1:Y72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1607,13 +1607,12 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -1679,12 +1678,13 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2268,9 +2268,21 @@
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
@@ -2304,11 +2316,7 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
@@ -2347,11 +2355,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>SCAN-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
@@ -2384,7 +2388,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>PICK #360 (no RX count), FRANKLIN-76TH ST</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2443,7 +2447,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>7201 S 76TH ST</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2486,7 +2490,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/JN9x4FQbXDM2</t>
+          <t>PICK #360 (no RX count), FRANKLIN-76TH ST</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2529,7 +2533,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>7201 S 76TH ST</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2576,7 +2580,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>5:15 am meet for Grafton crew</t>
+          <t>https://goo.gl/maps/JN9x4FQbXDM2</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2621,7 +2625,11 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>SET UP ON REG #1</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
@@ -2667,21 +2675,13 @@
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>5:15 am meet for Grafton crew</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
@@ -2722,16 +2722,8 @@
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
@@ -2783,17 +2775,17 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>Driver</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -2838,19 +2830,15 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
@@ -2910,15 +2898,19 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Driver</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
@@ -2961,15 +2953,19 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr"/>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
@@ -3016,12 +3012,12 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -3075,12 +3071,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -3127,12 +3123,12 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3179,12 +3175,12 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3230,12 +3226,12 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3281,19 +3277,15 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
@@ -3332,19 +3324,15 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Tanner</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>w/ Carlie</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
@@ -3395,17 +3383,17 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>w/ Carlie</t>
+          <t>After Aurora</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
@@ -3452,9 +3440,21 @@
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Tanner</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>w/ Carlie</t>
+        </is>
+      </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
@@ -3491,9 +3491,21 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>w/ Carlie</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
@@ -3519,11 +3531,7 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3550,11 +3558,7 @@
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
+      <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
@@ -3587,7 +3591,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1014, SOUTH MILWAUKEE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3622,7 +3626,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>2414 10TH AVENUE</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3657,7 +3661,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/RKFe5ejXrhF2</t>
+          <t>AURORA OUTPATIENT RX #1014, SOUTH MILWAUKEE</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3692,7 +3696,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>IF AVAILBLE, USE "NEW" (4208) SCANNERS AT THIS STORE</t>
+          <t>2414 10TH AVENUE</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3725,7 +3729,11 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/RKFe5ejXrhF2</t>
+        </is>
+      </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
@@ -3751,21 +3759,13 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+          <t>IF AVAILBLE, USE "NEW" (4208) SCANNERS AT THIS STORE</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
@@ -3802,16 +3802,8 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
@@ -3847,17 +3839,17 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>Training on CK's</t>
+          <t>White Camry available, Equip</t>
         </is>
       </c>
       <c r="T66" t="inlineStr"/>
@@ -3884,8 +3876,16 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
@@ -3911,9 +3911,21 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>Training on CK's</t>
+        </is>
+      </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
@@ -3939,11 +3951,7 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
@@ -3970,16 +3978,8 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
@@ -3987,6 +3987,72 @@
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/08-03-25 to 08-09-25 Milwaukee Schedule.xlsx
+++ b/08-03-25 to 08-09-25 Milwaukee Schedule.xlsx
@@ -3234,7 +3234,11 @@
           <t>Monica</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr"/>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Until 12:00</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
